--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -296,55 +296,55 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
     <t>193-sexiesdecies,193-septiesdecies</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -399,7 +399,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -407,23 +407,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -431,10 +432,10 @@
   <cols>
     <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.76171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="32.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="32.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -905,7 +906,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>44</v>
@@ -1345,7 +1346,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>89</v>
@@ -1745,7 +1746,7 @@
         <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>92</v>
@@ -1754,7 +1755,7 @@
         <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -1762,19 +1763,19 @@
         <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -1782,19 +1783,19 @@
         <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1802,19 +1803,19 @@
         <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -1822,19 +1823,19 @@
         <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -1842,7 +1843,7 @@
         <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
@@ -1851,7 +1852,7 @@
         <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1862,7 +1863,7 @@
         <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
@@ -1871,10 +1872,10 @@
         <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -1882,7 +1883,7 @@
         <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
@@ -1891,7 +1892,7 @@
         <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1902,7 +1903,7 @@
         <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
@@ -1911,10 +1912,10 @@
         <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="75">
@@ -1931,7 +1932,7 @@
         <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -1942,7 +1943,7 @@
         <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -1951,7 +1952,7 @@
         <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1962,16 +1963,16 @@
         <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1982,7 +1983,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
@@ -1991,7 +1992,7 @@
         <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2002,291 +2003,102 @@
         <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E588F42-F70A-4B84-97FC-3E5FA6AD73C2}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11FC7AA7-C3D0-4F4A-A324-DAAC2B721364}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{976CDDAB-7A15-47FD-BE37-BA7968207271}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -424,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1943,7 +1943,7 @@
         <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -1952,7 +1952,7 @@
         <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1963,16 +1963,16 @@
         <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1983,16 +1983,16 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2003,16 +2003,16 @@
         <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2023,16 +2023,16 @@
         <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2043,58 +2043,18 @@
         <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>193-sexiesdecies,193-septiesdecies</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -424,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1920,27 +1926,27 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>114</v>
@@ -1949,10 +1955,10 @@
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2040,21 +2046,41 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Dati trascrizione</t>
+  </si>
+  <si>
+    <t>Data Unione civile</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
   </si>
   <si>
     <t>Tipo richiesta</t>
@@ -430,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -815,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -829,16 +838,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -849,16 +858,16 @@
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -866,19 +875,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -886,19 +895,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -906,19 +915,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -926,19 +935,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -946,19 +955,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -966,19 +975,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -986,19 +995,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -1006,19 +1015,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1026,19 +1035,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1046,19 +1055,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1066,19 +1075,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1086,19 +1095,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1106,19 +1115,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1126,19 +1135,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1146,19 +1155,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1166,19 +1175,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1186,19 +1195,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1206,19 +1215,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1226,19 +1235,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1246,19 +1255,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1266,19 +1275,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1286,19 +1295,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1306,19 +1315,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1326,19 +1335,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1346,19 +1355,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1366,19 +1375,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1386,19 +1395,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1406,19 +1415,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1426,19 +1435,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1446,19 +1455,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1466,19 +1475,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1486,19 +1495,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1506,19 +1515,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1526,19 +1535,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1546,19 +1555,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1566,19 +1575,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1586,19 +1595,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1606,19 +1615,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1626,19 +1635,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1646,19 +1655,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1666,19 +1675,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1686,19 +1695,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1706,19 +1715,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1726,19 +1735,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1746,10 +1755,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
@@ -1758,7 +1767,7 @@
         <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1766,7 +1775,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>94</v>
@@ -1775,10 +1784,10 @@
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1786,19 +1795,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1806,19 +1815,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1826,19 +1835,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1846,19 +1855,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1866,19 +1875,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1886,19 +1895,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1906,27 +1915,27 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>111</v>
@@ -1935,50 +1944,50 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1986,19 +1995,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2006,19 +2015,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2026,19 +2035,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2046,19 +2055,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2066,21 +2075,41 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -365,22 +365,19 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Nome Ente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneUnioneCivile.autoritaMittente</t>
-  </si>
-  <si>
-    <t>Provincia Ente</t>
-  </si>
-  <si>
-    <t>Comune Ente</t>
-  </si>
-  <si>
-    <t>Indirizzo Ente</t>
-  </si>
-  <si>
-    <t>indirizzoEnte</t>
+    <t>evento.trascrizioneUnioneCivile.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -439,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -449,7 +446,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="32.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1978,13 +1975,13 @@
         <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>100</v>
@@ -1998,16 +1995,16 @@
         <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2018,16 +2015,16 @@
         <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2038,16 +2035,16 @@
         <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2058,16 +2055,16 @@
         <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2078,16 +2075,16 @@
         <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2098,18 +2095,58 @@
         <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -448,6 +454,7 @@
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="32.578125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,225 +476,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -709,1445 +752,1664 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>113</v>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -56,13 +56,13 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193-sexiesdecies</t>
+    <t>193-quater.1</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>193-septiesdecies</t>
+    <t>193-quinquies.1</t>
   </si>
   <si>
     <t>194</t>
@@ -359,7 +359,7 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>193-sexiesdecies,193-septiesdecies</t>
+    <t>193-quinquies.1,193-quater.1</t>
   </si>
   <si>
     <t>Comune estero</t>
@@ -453,7 +453,7 @@
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="32.578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -454,7 +454,7 @@
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>Traduzione dell'Atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193-quater.1</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>193-quinquies.1</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>Traduzione dell'Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193-quater.1</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>193-quinquies.1</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -753,1663 +756,1663 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -224,6 +224,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -363,9 +369,6 @@
   </si>
   <si>
     <t>193-quinquies.1,193-quater.1</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -445,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1204,7 +1207,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
@@ -1296,7 +1299,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -1411,7 +1414,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>50</v>
@@ -1474,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1523,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1592,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1615,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1638,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1661,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1684,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1776,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1799,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1822,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1845,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1868,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1891,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1914,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1937,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1960,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,16 +1986,16 @@
         <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2006,16 +2009,16 @@
         <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2029,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2052,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2075,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2098,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2121,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2144,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2164,22 +2167,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2187,22 +2190,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2210,22 +2213,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2233,22 +2236,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2256,19 +2259,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2282,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2305,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2328,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2351,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2374,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2394,24 +2397,70 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,9 @@
     <t>dataComunicazione</t>
   </si>
   <si>
+    <t>193-quinquies.1,193-quater.1</t>
+  </si>
+  <si>
     <t>Tipo atto da trascrivere</t>
   </si>
   <si>
@@ -302,6 +305,30 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>Unito civilmente 2</t>
   </si>
   <si>
@@ -366,9 +393,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>193-quinquies.1,193-quater.1</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -448,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -908,7 +932,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -917,7 +941,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
@@ -928,7 +952,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -937,7 +961,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -951,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -960,7 +984,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -971,19 +995,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -994,19 +1018,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1017,19 +1041,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1040,19 +1064,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1063,19 +1087,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1086,19 +1110,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1109,19 +1133,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1132,19 +1156,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1155,19 +1179,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1178,19 +1202,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1201,19 +1225,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1224,19 +1248,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1247,19 +1271,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1270,19 +1294,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1293,19 +1317,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1316,19 +1340,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1363,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1386,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1385,19 +1409,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1432,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1455,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1478,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1501,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2213,22 +2237,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2236,22 +2260,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2259,19 +2283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2351,22 +2375,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2374,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2397,22 +2421,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2420,22 +2444,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2443,24 +2467,208 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -1047,7 +1047,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
@@ -1668,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>106</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,7 +119,7 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati trascrizione</t>
+    <t>Dati della trascrizione</t>
   </si>
   <si>
     <t>Data Unione civile</t>
@@ -131,6 +131,51 @@
     <t>dataEvento</t>
   </si>
   <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Tipo richiesta</t>
   </si>
   <si>
@@ -179,6 +224,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -227,19 +278,16 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -393,9 +441,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -472,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
@@ -941,7 +986,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
@@ -952,16 +997,16 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -975,16 +1020,16 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -995,19 +1040,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1018,19 +1063,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1041,19 +1086,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1064,19 +1109,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1087,22 +1132,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -1110,19 +1155,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1133,19 +1178,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1156,7 +1201,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>65</v>
@@ -1165,10 +1210,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1179,19 +1224,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1202,19 +1247,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1225,19 +1270,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1248,19 +1293,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1271,19 +1316,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1294,19 +1339,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1317,19 +1362,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1340,19 +1385,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1363,19 +1408,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1386,19 +1431,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1409,16 +1454,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>88</v>
@@ -1432,16 +1477,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>90</v>
@@ -1455,7 +1500,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>91</v>
@@ -1464,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>92</v>
@@ -1478,7 +1523,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>93</v>
@@ -1487,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>94</v>
@@ -1501,7 +1546,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>95</v>
@@ -1510,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>96</v>
@@ -1524,7 +1569,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>97</v>
@@ -1533,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>98</v>
@@ -1547,7 +1592,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
@@ -1556,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>100</v>
@@ -1570,7 +1615,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>101</v>
@@ -1579,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>102</v>
@@ -1593,7 +1638,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>103</v>
@@ -1602,7 +1647,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>104</v>
@@ -1616,19 +1661,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1753,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1776,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1799,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1822,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1845,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +2006,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2098,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2144,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2190,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2259,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2282,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2305,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,22 +2420,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2398,19 +2443,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,22 +2466,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2444,22 +2489,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2467,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2558,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2581,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2604,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,22 +2627,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2605,19 +2650,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,22 +2673,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2651,24 +2696,231 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -977,7 +983,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -1529,7 +1535,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>66</v>
@@ -1552,7 +1558,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>66</v>
@@ -1690,7 +1696,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>66</v>
@@ -1759,7 +1765,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>66</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2492,16 +2498,16 @@
         <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,16 +2521,16 @@
         <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,22 +2633,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2650,19 +2656,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,22 +2679,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2696,22 +2702,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2719,22 +2725,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2742,22 +2748,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2765,19 +2771,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2794,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2863,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2886,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,24 +2909,70 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1719,7 +1725,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>66</v>
@@ -1788,7 +1794,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>66</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2294,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,16 +2550,16 @@
         <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,16 +2573,16 @@
         <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,22 +2685,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2725,22 +2731,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2748,22 +2754,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2771,22 +2777,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2794,22 +2800,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2846,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,24 +2961,70 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -393,6 +393,87 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -529,17 +610,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2599,7 +2680,7 @@
         <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>129</v>
@@ -2611,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
@@ -2619,22 +2700,22 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -2642,22 +2723,22 @@
         <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
@@ -2665,22 +2746,22 @@
         <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
@@ -2688,22 +2769,22 @@
         <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
@@ -2711,7 +2792,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -2720,13 +2801,13 @@
         <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
@@ -2746,10 +2827,10 @@
         <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
@@ -2766,13 +2847,13 @@
         <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
@@ -2780,7 +2861,7 @@
         <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
@@ -2789,13 +2870,13 @@
         <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
@@ -2803,7 +2884,7 @@
         <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
@@ -2812,219 +2893,771 @@
         <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2036,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2059,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2082,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2220,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2243,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2266,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2289,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2312,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2381,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2427,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2450,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2473,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2496,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2519,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2565,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2588,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2634,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2677,22 +2683,22 @@
         <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -2700,528 +2706,528 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114">
@@ -3229,22 +3235,22 @@
         <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
@@ -3252,39 +3258,39 @@
         <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3301,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3318,19 +3324,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3364,22 +3370,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>28</v>
@@ -3387,19 +3393,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3410,22 +3416,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3433,22 +3439,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3456,22 +3462,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3479,22 +3485,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3502,19 +3508,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3525,19 +3531,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3548,19 +3554,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3571,19 +3577,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3594,19 +3600,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3617,19 +3623,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3640,24 +3646,70 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,12 +387,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -616,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1990,19 +1984,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2007,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2076,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2145,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2168,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2191,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2260,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2329,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2375,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2398,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2582,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2605,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2628,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2651,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2683,22 +2677,22 @@
         <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
@@ -2706,528 +2700,528 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
@@ -3235,22 +3229,22 @@
         <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
@@ -3258,39 +3252,39 @@
         <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3295,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3318,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3341,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3370,22 +3364,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>28</v>
@@ -3393,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3416,22 +3410,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3439,22 +3433,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3462,22 +3456,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3485,22 +3479,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3508,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3525,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3548,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3577,19 +3571,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3600,19 +3594,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3617,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3646,70 +3640,24 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>Traduzione dell'Atto di costituzione di unione civile</t>
+    <t>Atto di costituzione e traduzione</t>
+  </si>
+  <si>
+    <t>Traduzione dell'atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>Formula</t>
   </si>
   <si>
     <t>193-quater.1</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>193-quinquies.1</t>
@@ -708,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -725,13 +725,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -771,13 +771,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -794,13 +794,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -817,13 +817,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -840,13 +840,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
@@ -1122,7 +1122,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>40</v>
@@ -1145,7 +1145,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -1168,7 +1168,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
@@ -1191,7 +1191,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>40</v>
@@ -1237,7 +1237,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>55</v>
@@ -1306,7 +1306,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
@@ -1352,7 +1352,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>66</v>
@@ -1467,7 +1467,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>66</v>
@@ -1490,7 +1490,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>66</v>
@@ -1513,7 +1513,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>66</v>
@@ -1536,7 +1536,7 @@
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>66</v>
@@ -1559,7 +1559,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>66</v>
@@ -1628,7 +1628,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>66</v>
@@ -1651,7 +1651,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>66</v>
@@ -1674,7 +1674,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>66</v>
@@ -1697,7 +1697,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>66</v>
@@ -1720,7 +1720,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>66</v>
@@ -1743,7 +1743,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>66</v>
@@ -1766,7 +1766,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>66</v>
@@ -1789,7 +1789,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>66</v>
@@ -1812,7 +1812,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>66</v>
@@ -1904,7 +1904,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>66</v>
@@ -1927,7 +1927,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>66</v>
@@ -1950,7 +1950,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>66</v>
@@ -1973,7 +1973,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>66</v>
@@ -1996,7 +1996,7 @@
         <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>66</v>
@@ -2019,7 +2019,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>128</v>
@@ -2065,7 +2065,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>128</v>
@@ -2180,7 +2180,7 @@
         <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>128</v>
@@ -2203,7 +2203,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>128</v>
@@ -2226,7 +2226,7 @@
         <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>128</v>
@@ -2249,7 +2249,7 @@
         <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>128</v>
@@ -2272,7 +2272,7 @@
         <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>128</v>
@@ -2341,7 +2341,7 @@
         <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>128</v>
@@ -2364,7 +2364,7 @@
         <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>128</v>
@@ -2387,7 +2387,7 @@
         <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>128</v>
@@ -2410,7 +2410,7 @@
         <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>128</v>
@@ -2433,7 +2433,7 @@
         <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>128</v>
@@ -2456,7 +2456,7 @@
         <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>128</v>
@@ -2479,7 +2479,7 @@
         <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>128</v>
@@ -2502,7 +2502,7 @@
         <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>128</v>
@@ -2525,7 +2525,7 @@
         <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>128</v>
@@ -2617,7 +2617,7 @@
         <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>128</v>
@@ -2640,7 +2640,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>128</v>
@@ -2663,7 +2663,7 @@
         <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>128</v>
@@ -2686,7 +2686,7 @@
         <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>128</v>
@@ -2709,7 +2709,7 @@
         <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>128</v>
@@ -2732,7 +2732,7 @@
         <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>131</v>
@@ -2755,7 +2755,7 @@
         <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>131</v>
@@ -2778,7 +2778,7 @@
         <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>131</v>
@@ -2801,7 +2801,7 @@
         <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>131</v>
@@ -2824,7 +2824,7 @@
         <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>131</v>
@@ -2847,7 +2847,7 @@
         <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>131</v>
@@ -2870,7 +2870,7 @@
         <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>131</v>
@@ -2893,7 +2893,7 @@
         <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>131</v>
@@ -2916,7 +2916,7 @@
         <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>131</v>
@@ -2939,7 +2939,7 @@
         <v>148</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>131</v>
@@ -2962,7 +2962,7 @@
         <v>150</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>131</v>
@@ -2985,7 +2985,7 @@
         <v>152</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>131</v>
@@ -3008,7 +3008,7 @@
         <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>155</v>
@@ -3031,7 +3031,7 @@
         <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>155</v>
@@ -3054,7 +3054,7 @@
         <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>155</v>
@@ -3077,7 +3077,7 @@
         <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>155</v>
@@ -3100,7 +3100,7 @@
         <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>155</v>
@@ -3123,7 +3123,7 @@
         <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>155</v>
@@ -3146,7 +3146,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>155</v>
@@ -3169,7 +3169,7 @@
         <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>155</v>
@@ -3192,7 +3192,7 @@
         <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>155</v>
@@ -3215,7 +3215,7 @@
         <v>148</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>155</v>
@@ -3238,7 +3238,7 @@
         <v>150</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>155</v>
@@ -3261,7 +3261,7 @@
         <v>152</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>155</v>
@@ -3399,7 +3399,7 @@
         <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>158</v>
@@ -3422,7 +3422,7 @@
         <v>170</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>158</v>
@@ -3445,7 +3445,7 @@
         <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>158</v>
@@ -3468,7 +3468,7 @@
         <v>174</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>158</v>
@@ -3491,7 +3491,7 @@
         <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>158</v>
@@ -3583,7 +3583,7 @@
         <v>168</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>177</v>
@@ -3606,7 +3606,7 @@
         <v>170</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>177</v>
@@ -3629,7 +3629,7 @@
         <v>172</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>177</v>
@@ -3652,7 +3652,7 @@
         <v>174</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>177</v>
@@ -3675,7 +3675,7 @@
         <v>178</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>177</v>
@@ -3698,7 +3698,7 @@
         <v>180</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>177</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1398,7 +1410,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>66</v>
@@ -1421,7 +1433,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>66</v>
@@ -1467,7 +1479,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>66</v>
@@ -1490,7 +1502,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>66</v>
@@ -1556,7 +1568,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
@@ -1565,7 +1577,7 @@
         <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1579,16 +1591,16 @@
         <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1602,10 +1614,10 @@
         <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>66</v>
@@ -1628,7 +1640,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>66</v>
@@ -1651,7 +1663,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>66</v>
@@ -1835,7 +1847,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>66</v>
@@ -1858,7 +1870,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>66</v>
@@ -1904,7 +1916,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>66</v>
@@ -1927,7 +1939,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>66</v>
@@ -2013,19 +2025,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2048,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2071,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2094,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2117,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2140,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2163,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2186,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2209,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2232,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2255,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2278,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2301,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2324,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2347,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2370,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2393,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2416,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2439,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2462,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2485,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2508,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2531,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2554,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2577,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2600,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2623,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2646,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2669,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2692,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2715,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2726,663 +2738,663 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3405,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3416,22 +3428,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3439,19 +3451,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3462,22 +3474,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3485,22 +3497,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3508,22 +3520,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3531,19 +3543,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3554,22 +3566,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3577,22 +3589,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3600,19 +3612,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3635,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3646,19 +3658,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3681,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3692,24 +3704,116 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>28</v>
       </c>
     </row>
